--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team Outlier\lifeline_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12ADF29C-F287-4A78-A8BD-E1BE631DC6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377607C4-E9DA-460E-BE9F-61D6FCB9BE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D2D4F83-4A06-4352-86C3-493D727EC95E}"/>
   </bookViews>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FD6DC2-4418-4402-AA17-6229F227E603}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AH28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3407,7 +3407,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D28">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E28">
         <v>1</v>

--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team Outlier\lifeline_streamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377607C4-E9DA-460E-BE9F-61D6FCB9BE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6FEE2-2C74-4136-AEA5-64C0DF47F5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D2D4F83-4A06-4352-86C3-493D727EC95E}"/>
   </bookViews>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FD6DC2-4418-4402-AA17-6229F227E603}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2700,7 +2700,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D19">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D26">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E26">
         <v>1</v>

--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team Outlier\lifeline_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6FEE2-2C74-4136-AEA5-64C0DF47F5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F3ECC2-FE04-43BA-9726-6D6D4BC555EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D2D4F83-4A06-4352-86C3-493D727EC95E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="159">
   <si>
     <t>DISTRICTNAME</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>17 KM</t>
+  </si>
+  <si>
+    <t>Ballari</t>
+  </si>
+  <si>
+    <t>Belagavi</t>
   </si>
 </sst>
 </file>
@@ -859,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FD6DC2-4418-4402-AA17-6229F227E603}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1289,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1586,7 +1592,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D8">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1892,7 +1898,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D11">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2195,7 +2201,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D14">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -3003,7 +3009,7 @@
         <v>1.05E+16</v>
       </c>
       <c r="D22">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
